--- a/Measurements/motors.xlsx
+++ b/Measurements/motors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\MSc\Final-Project\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4263B79-89A7-44CC-898A-7F235616BE3B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330CAEFD-2229-475A-A25B-235787E5D727}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="4875" xr2:uid="{631B157B-83C5-45A7-BE29-F12BE335A9BE}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -138,7 +138,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -4176,7 +4176,7 @@
   <dimension ref="A2:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4240,6 +4240,15 @@
         <f>-C5/4</f>
         <v>-1.075</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3" s="1">
         <f>C3*0.0980665</f>
         <v>-0.10542148749999999</v>
@@ -4341,11 +4350,11 @@
         <v>4.7326319111879123</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J3:J7" si="2">H5/A5</f>
+        <f t="shared" ref="J5:J7" si="2">H5/A5</f>
         <v>0.88614324999999994</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5:K7" si="3">ABS(-H5)/F5</f>
+        <f t="shared" ref="K5:K6" si="3">ABS(-H5)/F5</f>
         <v>5.9732080316477858E-2</v>
       </c>
       <c r="P5" t="s">

--- a/Measurements/motors.xlsx
+++ b/Measurements/motors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\MSc\Final-Project\Measurements\2018_10_07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\MSc\Final-Project\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B61E167-F2C9-4D8D-AE10-ABA349B8B2D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07808038-052B-4B14-9962-677FD4CA350E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4872" xr2:uid="{631B157B-83C5-45A7-BE29-F12BE335A9BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="4875" xr2:uid="{631B157B-83C5-45A7-BE29-F12BE335A9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -947,20 +947,17 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Munka1!$A$3:$A$6</c:f>
+              <c:f>Munka1!$A$4:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -968,21 +965,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Munka1!$G$3:$G$6</c:f>
+              <c:f>Munka1!$F$4:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.5785125000000065E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11</c:v>
+                  <c:v>0.42168594999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53168594999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.090665</c:v>
+                  <c:v>0.98066500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3785,16 +3779,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>519625</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>122946</xdr:rowOff>
+      <xdr:rowOff>70192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>250141</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1148861</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>119136</xdr:rowOff>
+      <xdr:rowOff>66382</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4158,23 +4152,23 @@
   <dimension ref="A2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4232,7 +4226,7 @@
         <v>4.5785125000000065E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.15</v>
       </c>
@@ -4262,11 +4256,11 @@
         <v>9.8170338729580316E-3</v>
       </c>
       <c r="I4">
-        <v>0.91479999999999995</v>
+        <v>0.93379999999999996</v>
       </c>
       <c r="J4">
-        <f>(12-0.9148*107/60*2*PI())/0.15</f>
-        <v>11.664355851795149</v>
+        <f>(12-I4*107/60*2*PI())/0.15</f>
+        <v>10.24505410407335</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
@@ -4278,7 +4272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.6</v>
       </c>
@@ -4308,7 +4302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.2</v>
       </c>
@@ -4335,7 +4329,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.4</v>
       </c>

--- a/Measurements/motors.xlsx
+++ b/Measurements/motors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\MSc\Final-Project\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07808038-052B-4B14-9962-677FD4CA350E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DBAB6B-BF33-4B79-A3F8-8A1BF06F7613}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="4875" xr2:uid="{631B157B-83C5-45A7-BE29-F12BE335A9BE}"/>
   </bookViews>
@@ -535,7 +535,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>P-n</c:v>
+            <c:v>P-T</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -576,33 +576,42 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Munka1!$B$4:$B$7</c:f>
+              <c:f>Munka1!$F$4:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>0.42168594999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>0.98066500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.96133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Munka1!#REF!</c:f>
+              <c:f>Munka1!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,7 +655,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1477,6 +1486,768 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17094088612057826"/>
+          <c:y val="5.0926096447113482E-2"/>
+          <c:w val="0.6384264504250402"/>
+          <c:h val="0.77457322352549185"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n - T</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42168594999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98066500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.96133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE2B-4D17-A776-5FE4B885A0E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="541853672"/>
+        <c:axId val="541858920"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>I - T</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42168594999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98066500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.96133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE2B-4D17-A776-5FE4B885A0E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>P - T</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EE2B-4D17-A776-5FE4B885A0E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="632690280"/>
+        <c:axId val="635969128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="541853672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>T [Nm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541858920"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="541858920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>n [rpm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541853672"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="635969128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>I [A]</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>P [W]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.87824908618743069"/>
+              <c:y val="0.33940179352580929"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632690280"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="632690280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="635969128"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62807474438829469"/>
+          <c:y val="6.7996983776261927E-2"/>
+          <c:w val="0.16692599992165158"/>
+          <c:h val="0.24566231261305116"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1637,6 +2408,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3186,6 +3997,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3741,15 +5068,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>306559</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1303021</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>68725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>189767</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>607402</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>108731</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3844,6 +5171,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520212</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B683E1-DC8C-492D-AB65-9A291AD2C9A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4152,7 +5515,7 @@
   <dimension ref="A2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
